--- a/assets/templates/spec-export/SpecExport-agt70x140.xlsx
+++ b/assets/templates/spec-export/SpecExport-agt70x140.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="474">
   <si>
     <t xml:space="preserve">Предмет</t>
   </si>
@@ -1234,13 +1234,13 @@
     <t xml:space="preserve">Полотенца банные</t>
   </si>
   <si>
-    <t xml:space="preserve">Asgabat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGT70X140/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">светло-бирюзовый</t>
+    <t xml:space="preserve">Ашхабадский текстильный комплекс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST70X140/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">белый</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -1249,7 +1249,7 @@
     <t xml:space="preserve">Полотенце 70х140</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385007</t>
+    <t xml:space="preserve">2000488469007</t>
   </si>
   <si>
     <t xml:space="preserve">100% хлопок</t>
@@ -1294,52 +1294,154 @@
     <t xml:space="preserve">25.00</t>
   </si>
   <si>
+    <t xml:space="preserve">бирюзовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бордовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469021</t>
+  </si>
+  <si>
     <t xml:space="preserve">васильковый</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385014</t>
+    <t xml:space="preserve">2000488469038</t>
   </si>
   <si>
     <t xml:space="preserve">голубой</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385021</t>
+    <t xml:space="preserve">2000488469045</t>
   </si>
   <si>
     <t xml:space="preserve">жаренный-орех</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385038</t>
+    <t xml:space="preserve">2000488469052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сгоревший желтый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">желтый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469069</t>
   </si>
   <si>
     <t xml:space="preserve">зеленый</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385045</t>
+    <t xml:space="preserve">2000488469076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изумрудный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469083</t>
   </si>
   <si>
     <t xml:space="preserve">коралловый</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385052</t>
+    <t xml:space="preserve">2000488469090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коричневый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">красный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469113</t>
   </si>
   <si>
     <t xml:space="preserve">малиновый</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нуга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000467385076</t>
+    <t xml:space="preserve">2000488469120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мандариновый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оранжевый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">персиковый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">розовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">салатовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">серый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469182</t>
   </si>
   <si>
     <t xml:space="preserve">сиреневый</t>
   </si>
   <si>
-    <t xml:space="preserve">2000467385083</t>
+    <t xml:space="preserve">2000488469199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">темно-синий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фиолетовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">черный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шампань</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шоколад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000488469243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шоколадный</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1616,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:OM10"/>
+  <dimension ref="A1:OM1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1530,7 +1632,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.29"/>
@@ -3136,7 +3238,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>403</v>
       </c>
@@ -3146,7 +3248,7 @@
       <c r="C2" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="0" t="s">
         <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3158,7 +3260,7 @@
       <c r="G2" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="0" t="s">
         <v>406</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3207,7 +3309,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>403</v>
       </c>
@@ -3217,7 +3319,7 @@
       <c r="C3" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="0" t="s">
         <v>424</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3229,7 +3331,7 @@
       <c r="G3" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="0" t="s">
         <v>424</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -3278,7 +3380,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>403</v>
       </c>
@@ -3288,7 +3390,7 @@
       <c r="C4" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="0" t="s">
         <v>426</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3300,7 +3402,7 @@
       <c r="G4" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="0" t="s">
         <v>426</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -3349,7 +3451,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>403</v>
       </c>
@@ -3359,7 +3461,7 @@
       <c r="C5" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="0" t="s">
         <v>428</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3371,7 +3473,7 @@
       <c r="G5" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="0" t="s">
         <v>428</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -3420,7 +3522,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>403</v>
       </c>
@@ -3430,7 +3532,7 @@
       <c r="C6" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>430</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3442,7 +3544,7 @@
       <c r="G6" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="0" t="s">
         <v>430</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -3491,7 +3593,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>403</v>
       </c>
@@ -3501,7 +3603,7 @@
       <c r="C7" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="0" t="s">
         <v>432</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -3513,8 +3615,8 @@
       <c r="G7" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>432</v>
+      <c r="I7" s="0" t="s">
+        <v>434</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>410</v>
@@ -3562,7 +3664,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>403</v>
       </c>
@@ -3572,8 +3674,8 @@
       <c r="C8" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>434</v>
+      <c r="D8" s="0" t="s">
+        <v>435</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>407</v>
@@ -3582,10 +3684,10 @@
         <v>408</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>410</v>
@@ -3633,7 +3735,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>403</v>
       </c>
@@ -3643,8 +3745,8 @@
       <c r="C9" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>436</v>
+      <c r="D9" s="0" t="s">
+        <v>437</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>407</v>
@@ -3653,10 +3755,10 @@
         <v>408</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>410</v>
@@ -3704,7 +3806,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>403</v>
       </c>
@@ -3714,8 +3816,8 @@
       <c r="C10" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>438</v>
+      <c r="D10" s="0" t="s">
+        <v>439</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>407</v>
@@ -3724,10 +3826,10 @@
         <v>408</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>410</v>
@@ -3775,6 +3877,1145 @@
         <v>423</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
